--- a/data/trans_orig/IP16A11_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A11_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6976E68-7AA4-4225-B920-7CDAA5F79F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E0EB869-52EB-48A7-9B2F-347C32892792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{F6589BFA-A046-4071-BD8B-07526DA90B6F}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{C2BAE3F3-CB11-4691-8DCC-CC2390F10E65}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,12 +65,120 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>68,34%</t>
   </si>
   <si>
@@ -98,9 +206,6 @@
     <t>74,36%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>31,66%</t>
   </si>
   <si>
@@ -128,64 +233,61 @@
     <t>41,99%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -243,108 +345,6 @@
   </si>
   <si>
     <t>38,74%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
   </si>
   <si>
     <t>68,2%</t>
@@ -790,7 +790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F37511-E913-4B06-90ED-AAB50EC3444A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8682321-702C-465D-AF49-2F2200486B83}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -908,10 +908,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>41581</v>
+        <v>3664</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -923,10 +923,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>26175</v>
+        <v>5596</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -935,73 +935,73 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>17</v>
+      </c>
+      <c r="N4" s="7">
+        <v>9260</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>103</v>
-      </c>
-      <c r="N4" s="7">
-        <v>67757</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>503</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>28</v>
-      </c>
-      <c r="D5" s="7">
-        <v>19264</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1021</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>23</v>
-      </c>
-      <c r="I5" s="7">
-        <v>14577</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1524</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>51</v>
-      </c>
-      <c r="N5" s="7">
-        <v>33841</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1010,54 +1010,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7">
-        <v>60845</v>
+        <v>4167</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I6" s="7">
-        <v>40752</v>
+        <v>6617</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>154</v>
+        <v>19</v>
       </c>
       <c r="N6" s="7">
-        <v>101598</v>
+        <v>10784</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1069,13 +1069,13 @@
         <v>19769</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -1084,13 +1084,13 @@
         <v>12191</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -1099,19 +1099,19 @@
         <v>31961</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>4</v>
@@ -1120,13 +1120,13 @@
         <v>2347</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
@@ -1135,13 +1135,13 @@
         <v>7833</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M8" s="7">
         <v>18</v>
@@ -1150,13 +1150,13 @@
         <v>10179</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1171,13 +1171,13 @@
         <v>22116</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
         <v>34</v>
@@ -1186,13 +1186,13 @@
         <v>20024</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
         <v>67</v>
@@ -1201,117 +1201,117 @@
         <v>42140</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="D10" s="7">
-        <v>22540</v>
+        <v>41581</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="7">
+        <v>40</v>
+      </c>
+      <c r="I10" s="7">
+        <v>26175</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>103</v>
+      </c>
+      <c r="N10" s="7">
+        <v>67757</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
-        <v>33</v>
-      </c>
-      <c r="I10" s="7">
-        <v>22119</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" s="7">
-        <v>67</v>
-      </c>
-      <c r="N10" s="7">
-        <v>44660</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D11" s="7">
-        <v>9887</v>
+        <v>19264</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="7">
+        <v>23</v>
+      </c>
+      <c r="I11" s="7">
+        <v>14577</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>51</v>
+      </c>
+      <c r="N11" s="7">
+        <v>33841</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>14</v>
-      </c>
-      <c r="I11" s="7">
-        <v>8690</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" s="7">
-        <v>26</v>
-      </c>
-      <c r="N11" s="7">
-        <v>18577</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1320,150 +1320,150 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="D12" s="7">
-        <v>32427</v>
+        <v>60845</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="I12" s="7">
-        <v>30809</v>
+        <v>40752</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="N12" s="7">
-        <v>63237</v>
+        <v>101598</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D13" s="7">
-        <v>3664</v>
+        <v>30458</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="7">
+        <v>36</v>
+      </c>
+      <c r="I13" s="7">
+        <v>32909</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>75</v>
+      </c>
+      <c r="N13" s="7">
+        <v>63366</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>11</v>
-      </c>
-      <c r="I13" s="7">
-        <v>5596</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M13" s="7">
-        <v>17</v>
-      </c>
-      <c r="N13" s="7">
-        <v>9260</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D14" s="7">
-        <v>503</v>
+        <v>23036</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>37</v>
+      </c>
+      <c r="I14" s="7">
+        <v>24986</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1021</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>72</v>
+      </c>
+      <c r="N14" s="7">
+        <v>48022</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M14" s="7">
-        <v>2</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1524</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>83</v>
@@ -1475,49 +1475,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D15" s="7">
-        <v>4167</v>
+        <v>53494</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I15" s="7">
-        <v>6617</v>
+        <v>57895</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="N15" s="7">
-        <v>10784</v>
+        <v>111388</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1528,10 +1528,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D16" s="7">
-        <v>30458</v>
+        <v>22540</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>85</v>
@@ -1543,10 +1543,10 @@
         <v>87</v>
       </c>
       <c r="H16" s="7">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I16" s="7">
-        <v>32909</v>
+        <v>22119</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>88</v>
@@ -1558,10 +1558,10 @@
         <v>90</v>
       </c>
       <c r="M16" s="7">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="N16" s="7">
-        <v>63366</v>
+        <v>44660</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>91</v>
@@ -1576,13 +1576,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D17" s="7">
-        <v>23036</v>
+        <v>9887</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>94</v>
@@ -1594,10 +1594,10 @@
         <v>96</v>
       </c>
       <c r="H17" s="7">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="I17" s="7">
-        <v>24986</v>
+        <v>8690</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>97</v>
@@ -1609,10 +1609,10 @@
         <v>99</v>
       </c>
       <c r="M17" s="7">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="N17" s="7">
-        <v>48022</v>
+        <v>18577</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>100</v>
@@ -1630,49 +1630,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="D18" s="7">
-        <v>53494</v>
+        <v>32427</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="I18" s="7">
-        <v>57895</v>
+        <v>30809</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="N18" s="7">
-        <v>111388</v>
+        <v>63237</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1731,7 +1731,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>80</v>
@@ -1791,13 +1791,13 @@
         <v>173049</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H21" s="7">
         <v>229</v>
@@ -1806,13 +1806,13 @@
         <v>156098</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M21" s="7">
         <v>480</v>
@@ -1821,13 +1821,13 @@
         <v>329146</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16A11_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A11_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E0EB869-52EB-48A7-9B2F-347C32892792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C986AD58-689D-4694-ADBB-1D5AF5B664A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{C2BAE3F3-CB11-4691-8DCC-CC2390F10E65}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{408A9237-E11D-40C3-BE31-45256F0D4B15}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="122">
   <si>
     <t>Menores según si ha consumido medicinas para el dolor en 2023 (Tasa respuesta: 25,0%)</t>
   </si>
@@ -68,6 +68,30 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -92,313 +116,292 @@
     <t>57,09%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
     <t>89,39%</t>
   </si>
   <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
   </si>
   <si>
     <t>60,88%</t>
   </si>
   <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
   </si>
   <si>
     <t>75,84%</t>
   </si>
   <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
     <t>68,34%</t>
   </si>
   <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
   </si>
   <si>
     <t>64,23%</t>
   </si>
   <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
   </si>
   <si>
     <t>66,69%</t>
   </si>
   <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
     <t>56,94%</t>
   </si>
   <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
   </si>
   <si>
     <t>56,84%</t>
   </si>
   <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
   </si>
   <si>
     <t>56,89%</t>
   </si>
   <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
     <t>69,51%</t>
   </si>
   <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
   </si>
   <si>
     <t>71,79%</t>
   </si>
   <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
   </si>
   <si>
     <t>70,62%</t>
   </si>
   <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
   </si>
   <si>
     <t>68,2%</t>
   </si>
   <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
   </si>
   <si>
     <t>63,42%</t>
   </si>
   <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
   </si>
   <si>
     <t>65,93%</t>
   </si>
   <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -409,7 +412,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -505,39 +508,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -589,7 +592,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -700,13 +703,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -715,6 +711,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -779,19 +782,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8682321-702C-465D-AF49-2F2200486B83}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57264884-A625-4D25-B20D-16043FB6E5B5}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -908,10 +931,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>3664</v>
+        <v>503</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -923,34 +946,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>5596</v>
+        <v>1021</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>9260</v>
+        <v>1524</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -959,10 +982,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>503</v>
+        <v>3664</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -974,34 +997,34 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I5" s="7">
-        <v>1021</v>
+        <v>5596</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="N5" s="7">
-        <v>1524</v>
+        <v>9260</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1063,10 +1086,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>19769</v>
+        <v>2347</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>28</v>
@@ -1078,10 +1101,10 @@
         <v>30</v>
       </c>
       <c r="H7" s="7">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I7" s="7">
-        <v>12191</v>
+        <v>7833</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>31</v>
@@ -1093,10 +1116,10 @@
         <v>33</v>
       </c>
       <c r="M7" s="7">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="N7" s="7">
-        <v>31961</v>
+        <v>10179</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>34</v>
@@ -1114,10 +1137,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D8" s="7">
-        <v>2347</v>
+        <v>19769</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>37</v>
@@ -1129,10 +1152,10 @@
         <v>39</v>
       </c>
       <c r="H8" s="7">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I8" s="7">
-        <v>7833</v>
+        <v>12191</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>40</v>
@@ -1144,10 +1167,10 @@
         <v>42</v>
       </c>
       <c r="M8" s="7">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="N8" s="7">
-        <v>10179</v>
+        <v>31961</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>43</v>
@@ -1218,10 +1241,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="D10" s="7">
-        <v>41581</v>
+        <v>19264</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>47</v>
@@ -1233,10 +1256,10 @@
         <v>49</v>
       </c>
       <c r="H10" s="7">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I10" s="7">
-        <v>26175</v>
+        <v>14577</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>50</v>
@@ -1248,10 +1271,10 @@
         <v>52</v>
       </c>
       <c r="M10" s="7">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="N10" s="7">
-        <v>67757</v>
+        <v>33841</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>53</v>
@@ -1269,10 +1292,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="D11" s="7">
-        <v>19264</v>
+        <v>41581</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>56</v>
@@ -1284,10 +1307,10 @@
         <v>58</v>
       </c>
       <c r="H11" s="7">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="I11" s="7">
-        <v>14577</v>
+        <v>26175</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>59</v>
@@ -1299,10 +1322,10 @@
         <v>61</v>
       </c>
       <c r="M11" s="7">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="N11" s="7">
-        <v>33841</v>
+        <v>67757</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>62</v>
@@ -1373,10 +1396,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D13" s="7">
-        <v>30458</v>
+        <v>23036</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>66</v>
@@ -1388,10 +1411,10 @@
         <v>68</v>
       </c>
       <c r="H13" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I13" s="7">
-        <v>32909</v>
+        <v>24986</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>69</v>
@@ -1403,10 +1426,10 @@
         <v>71</v>
       </c>
       <c r="M13" s="7">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N13" s="7">
-        <v>63366</v>
+        <v>48022</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>72</v>
@@ -1424,10 +1447,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D14" s="7">
-        <v>23036</v>
+        <v>30458</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>75</v>
@@ -1439,10 +1462,10 @@
         <v>77</v>
       </c>
       <c r="H14" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I14" s="7">
-        <v>24986</v>
+        <v>32909</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>78</v>
@@ -1454,10 +1477,10 @@
         <v>80</v>
       </c>
       <c r="M14" s="7">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N14" s="7">
-        <v>48022</v>
+        <v>63366</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>81</v>
@@ -1528,10 +1551,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>22540</v>
+        <v>9887</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>85</v>
@@ -1543,10 +1566,10 @@
         <v>87</v>
       </c>
       <c r="H16" s="7">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="I16" s="7">
-        <v>22119</v>
+        <v>8690</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>88</v>
@@ -1558,10 +1581,10 @@
         <v>90</v>
       </c>
       <c r="M16" s="7">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="N16" s="7">
-        <v>44660</v>
+        <v>18577</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>91</v>
@@ -1579,10 +1602,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D17" s="7">
-        <v>9887</v>
+        <v>22540</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>94</v>
@@ -1594,10 +1617,10 @@
         <v>96</v>
       </c>
       <c r="H17" s="7">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="I17" s="7">
-        <v>8690</v>
+        <v>22119</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>97</v>
@@ -1609,10 +1632,10 @@
         <v>99</v>
       </c>
       <c r="M17" s="7">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="N17" s="7">
-        <v>18577</v>
+        <v>44660</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>100</v>
@@ -1683,10 +1706,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="D19" s="7">
-        <v>118013</v>
+        <v>55036</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>103</v>
@@ -1698,10 +1721,10 @@
         <v>105</v>
       </c>
       <c r="H19" s="7">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="I19" s="7">
-        <v>98990</v>
+        <v>57108</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>106</v>
@@ -1713,10 +1736,10 @@
         <v>108</v>
       </c>
       <c r="M19" s="7">
-        <v>311</v>
+        <v>169</v>
       </c>
       <c r="N19" s="7">
-        <v>217003</v>
+        <v>112143</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>109</v>
@@ -1734,10 +1757,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="D20" s="7">
-        <v>55036</v>
+        <v>118013</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>112</v>
@@ -1749,10 +1772,10 @@
         <v>114</v>
       </c>
       <c r="H20" s="7">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="I20" s="7">
-        <v>57108</v>
+        <v>98990</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>115</v>
@@ -1764,10 +1787,10 @@
         <v>117</v>
       </c>
       <c r="M20" s="7">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="N20" s="7">
-        <v>112143</v>
+        <v>217003</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>118</v>
@@ -1828,6 +1851,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16A11_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A11_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C986AD58-689D-4694-ADBB-1D5AF5B664A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9754ACFA-9CBB-47C0-AD48-91866D83A584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{408A9237-E11D-40C3-BE31-45256F0D4B15}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0F5746EE-69E9-454F-ACDB-F338C01C06B7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,19 +77,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>54,45%</t>
+    <t>53,73%</t>
   </si>
   <si>
     <t>15,43%</t>
   </si>
   <si>
-    <t>54,88%</t>
+    <t>58,62%</t>
   </si>
   <si>
     <t>14,13%</t>
   </si>
   <si>
-    <t>42,91%</t>
+    <t>45,91%</t>
   </si>
   <si>
     <t>No</t>
@@ -98,7 +98,7 @@
     <t>87,93%</t>
   </si>
   <si>
-    <t>45,55%</t>
+    <t>46,27%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -107,187 +107,187 @@
     <t>84,57%</t>
   </si>
   <si>
-    <t>45,12%</t>
+    <t>41,38%</t>
   </si>
   <si>
     <t>85,87%</t>
   </si>
   <si>
-    <t>57,09%</t>
+    <t>54,09%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>10,61%</t>
   </si>
   <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
   </si>
   <si>
     <t>39,12%</t>
   </si>
   <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
   </si>
   <si>
     <t>24,16%</t>
   </si>
   <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
   </si>
   <si>
     <t>89,39%</t>
   </si>
   <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
   </si>
   <si>
     <t>60,88%</t>
   </si>
   <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
   </si>
   <si>
     <t>75,84%</t>
   </si>
   <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>31,66%</t>
   </si>
   <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
   </si>
   <si>
     <t>35,77%</t>
   </si>
   <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
   </si>
   <si>
     <t>33,31%</t>
   </si>
   <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
   </si>
   <si>
     <t>68,34%</t>
   </si>
   <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
   </si>
   <si>
     <t>64,23%</t>
   </si>
   <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
   </si>
   <si>
     <t>66,69%</t>
   </si>
   <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>43,06%</t>
   </si>
   <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
   </si>
   <si>
     <t>43,16%</t>
   </si>
   <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
   </si>
   <si>
     <t>43,11%</t>
   </si>
   <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
   </si>
   <si>
     <t>56,94%</t>
   </si>
   <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
   </si>
   <si>
     <t>56,84%</t>
   </si>
   <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
   </si>
   <si>
     <t>56,89%</t>
   </si>
   <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -296,109 +296,109 @@
     <t>30,49%</t>
   </si>
   <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
   </si>
   <si>
     <t>28,21%</t>
   </si>
   <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
   </si>
   <si>
     <t>29,38%</t>
   </si>
   <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
   </si>
   <si>
     <t>69,51%</t>
   </si>
   <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
   </si>
   <si>
     <t>71,79%</t>
   </si>
   <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
   </si>
   <si>
     <t>70,62%</t>
   </si>
   <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
   </si>
   <si>
     <t>31,8%</t>
   </si>
   <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
   </si>
   <si>
     <t>36,58%</t>
   </si>
   <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
   </si>
   <si>
     <t>34,07%</t>
   </si>
   <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
   </si>
   <si>
     <t>68,2%</t>
   </si>
   <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
   </si>
   <si>
     <t>63,42%</t>
   </si>
   <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
   </si>
   <si>
     <t>65,93%</t>
   </si>
   <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -813,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57264884-A625-4D25-B20D-16043FB6E5B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA24FD2-D806-4669-9E32-33BC67486CF2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1259,7 +1259,7 @@
         <v>23</v>
       </c>
       <c r="I10" s="7">
-        <v>14577</v>
+        <v>14578</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>50</v>
@@ -1361,7 +1361,7 @@
         <v>63</v>
       </c>
       <c r="I12" s="7">
-        <v>40752</v>
+        <v>40753</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>26</v>

--- a/data/trans_orig/IP16A11_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A11_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9754ACFA-9CBB-47C0-AD48-91866D83A584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95567EDE-FB67-4264-A3DC-D4E242301616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0F5746EE-69E9-454F-ACDB-F338C01C06B7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CBD93A07-B765-42CF-BE71-127197D15C32}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Menores según si ha consumido medicinas para el dolor en 2023 (Tasa respuesta: 25,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,340 +65,295 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
   </si>
   <si>
     <t>58,62%</t>
   </si>
   <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
   </si>
   <si>
     <t>24,16%</t>
   </si>
   <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
   </si>
   <si>
     <t>75,84%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -813,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA24FD2-D806-4669-9E32-33BC67486CF2}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5007769-A37B-4379-826B-11E09D4DAA98}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -931,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D4" s="7">
-        <v>503</v>
+        <v>8775</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -946,85 +901,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>1021</v>
+        <v>2911</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="N4" s="7">
-        <v>1524</v>
+        <v>11686</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D5" s="7">
-        <v>3664</v>
+        <v>18163</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="I5" s="7">
-        <v>5596</v>
+        <v>25256</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="N5" s="7">
-        <v>9260</v>
+        <v>43419</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1033,153 +988,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="D6" s="7">
-        <v>4167</v>
+        <v>26938</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I6" s="7">
-        <v>6617</v>
+        <v>28167</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="N6" s="7">
-        <v>10784</v>
+        <v>55105</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D7" s="7">
-        <v>2347</v>
+        <v>14967</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="7">
         <v>28</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="7">
-        <v>14</v>
-      </c>
       <c r="I7" s="7">
-        <v>7833</v>
+        <v>20301</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="N7" s="7">
-        <v>10179</v>
+        <v>35268</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D8" s="7">
-        <v>19769</v>
+        <v>29815</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="I8" s="7">
-        <v>12191</v>
+        <v>43508</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
+        <v>103</v>
+      </c>
+      <c r="N8" s="7">
+        <v>73323</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="N8" s="7">
-        <v>31961</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1188,153 +1143,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D9" s="7">
-        <v>22116</v>
+        <v>44782</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="I9" s="7">
-        <v>20024</v>
+        <v>63809</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="N9" s="7">
-        <v>42140</v>
+        <v>108591</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D10" s="7">
-        <v>19264</v>
+        <v>24489</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I10" s="7">
-        <v>14578</v>
+        <v>25188</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="N10" s="7">
-        <v>33841</v>
+        <v>49676</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>36</v>
+      </c>
+      <c r="D11" s="7">
+        <v>52582</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="7">
+        <v>39</v>
+      </c>
+      <c r="I11" s="7">
+        <v>31735</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="7">
-        <v>41581</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="7">
-        <v>40</v>
-      </c>
-      <c r="I11" s="7">
-        <v>26175</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="N11" s="7">
-        <v>67757</v>
+        <v>84318</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1343,153 +1298,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D12" s="7">
-        <v>60845</v>
+        <v>77071</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="I12" s="7">
-        <v>40753</v>
+        <v>56923</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="N12" s="7">
-        <v>101598</v>
+        <v>133994</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D13" s="7">
-        <v>23036</v>
+        <v>8774</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>24986</v>
+        <v>10169</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="N13" s="7">
-        <v>48022</v>
+        <v>18943</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D14" s="7">
-        <v>30458</v>
+        <v>21787</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I14" s="7">
-        <v>32909</v>
+        <v>23640</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="N14" s="7">
-        <v>63366</v>
+        <v>45427</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1498,153 +1453,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="D15" s="7">
-        <v>53494</v>
+        <v>30561</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="I15" s="7">
-        <v>57895</v>
+        <v>33809</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="N15" s="7">
-        <v>111388</v>
+        <v>64370</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="D16" s="7">
-        <v>9887</v>
+        <v>57005</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I16" s="7">
-        <v>8690</v>
+        <v>58569</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>26</v>
+        <v>169</v>
       </c>
       <c r="N16" s="7">
-        <v>18577</v>
+        <v>115574</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="D17" s="7">
-        <v>22540</v>
+        <v>122347</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>33</v>
+        <v>171</v>
       </c>
       <c r="I17" s="7">
-        <v>22119</v>
+        <v>124140</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>67</v>
+        <v>311</v>
       </c>
       <c r="N17" s="7">
-        <v>44660</v>
+        <v>246487</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1653,217 +1608,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>46</v>
+        <v>229</v>
       </c>
       <c r="D18" s="7">
-        <v>32427</v>
+        <v>179352</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>47</v>
+        <v>251</v>
       </c>
       <c r="I18" s="7">
-        <v>30809</v>
+        <v>182709</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>93</v>
+        <v>480</v>
       </c>
       <c r="N18" s="7">
-        <v>63237</v>
+        <v>362061</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>80</v>
-      </c>
-      <c r="D19" s="7">
-        <v>55036</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" s="7">
-        <v>89</v>
-      </c>
-      <c r="I19" s="7">
-        <v>57108</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M19" s="7">
-        <v>169</v>
-      </c>
-      <c r="N19" s="7">
-        <v>112143</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>171</v>
-      </c>
-      <c r="D20" s="7">
-        <v>118013</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H20" s="7">
-        <v>140</v>
-      </c>
-      <c r="I20" s="7">
-        <v>98990</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="M20" s="7">
-        <v>311</v>
-      </c>
-      <c r="N20" s="7">
-        <v>217003</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>251</v>
-      </c>
-      <c r="D21" s="7">
-        <v>173049</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>229</v>
-      </c>
-      <c r="I21" s="7">
-        <v>156098</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>480</v>
-      </c>
-      <c r="N21" s="7">
-        <v>329146</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
